--- a/Assets/StreamingAssets/Excels/NPCData.xlsx
+++ b/Assets/StreamingAssets/Excels/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993F025-7DD5-4334-9EB1-805FA9AEDF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F80EE0-ED8E-4D00-87D0-31662F1E82F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>attack_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flee_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe_Dis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,9 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,18 +429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="9" style="2"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,35 +468,41 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -498,32 +524,38 @@
       <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>3.1</v>
+      <c r="H2" s="2">
+        <v>3</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>3</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="O2" s="1">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
+      <c r="R2" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excels/NPCData.xlsx
+++ b/Assets/StreamingAssets/Excels/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F80EE0-ED8E-4D00-87D0-31662F1E82F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD7A90-3999-4B2A-9E32-1EB9244D0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -45,56 +45,73 @@
     <t>defence</t>
   </si>
   <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>reloadTime</t>
+  </si>
+  <si>
+    <t>类型1</t>
+  </si>
+  <si>
+    <t>npc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Enemy</t>
+  </si>
+  <si>
+    <t>selfid</t>
+  </si>
+  <si>
+    <t>patrol_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flee_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>speed</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>attackSpeed</t>
-  </si>
-  <si>
-    <t>reloadTime</t>
-  </si>
-  <si>
-    <t>类型1</t>
-  </si>
-  <si>
-    <t>npc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Enemy</t>
-  </si>
-  <si>
-    <t>selfid</t>
-  </si>
-  <si>
-    <t>patrol_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chase_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chase_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flee_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safe_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,12 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,17 +452,18 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="3"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="16" width="9" style="2"/>
+    <col min="10" max="13" width="9" style="2"/>
+    <col min="14" max="16" width="9" style="3"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="9" style="2"/>
+    <col min="18" max="18" width="9" style="3"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -451,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -468,38 +489,38 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -510,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -524,8 +545,8 @@
       <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
-        <v>3</v>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -542,20 +563,20 @@
       <c r="M2" s="2">
         <v>3</v>
       </c>
-      <c r="N2" s="2">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10</v>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="R2" s="2">
-        <v>20</v>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excels/NPCData.xlsx
+++ b/Assets/StreamingAssets/Excels/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD7A90-3999-4B2A-9E32-1EB9244D0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B062F4F-73A0-411B-9876-F4BCE08565E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1440" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -61,57 +61,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>selfid</t>
+  </si>
+  <si>
+    <t>patrol_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flee_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe_Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Character/Enemy</t>
-  </si>
-  <si>
-    <t>selfid</t>
-  </si>
-  <si>
-    <t>patrol_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chase_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chase_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flee_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safe_Dis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Sci_Fi_Character_08_04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -490,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -502,28 +511,28 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -537,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -546,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -564,19 +573,75 @@
         <v>3</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>30</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
